--- a/rmse_VAR_by_seasonality_financialexogscaled_plusUSDavgprice.xlsx
+++ b/rmse_VAR_by_seasonality_financialexogscaled_plusUSDavgprice.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrkuker/Dropbox/_GEORGETOWN Dropbox/_Hoya1/Hoya1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nicole Dropbox\Dropbox\_GEORGETOWN Dropbox\_Hoya1\Hoya1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{45FD3F58-8835-6E49-AC53-A42443197B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0195DD-E922-4BDE-8D4E-77A8DC7398EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1000" windowWidth="25100" windowHeight="14400"/>
+    <workbookView xWindow="640" yWindow="590" windowWidth="35300" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rmse_VAR_by_seasonality_financi" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>season5</t>
   </si>
@@ -107,13 +108,34 @@
   </si>
   <si>
     <t>eagleford_45</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>avg_rmse</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +253,12 @@
       <name val="HelveticaNeue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="HelveticaNeue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -528,6 +556,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -573,8 +616,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -620,7 +665,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -648,76 +693,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1060,313 +1035,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M2" sqref="M2:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1.3938333268167999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1.5119338101684801</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1.4366117905201801</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.27902267142377</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1.4535259911767699</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1.38578322490077</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>1.5072079590362499</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>1.5755654713410201</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>1.4148017887047599</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>2.8852437238648201</v>
       </c>
       <c r="M2">
         <f>AVERAGE(B2:K2)</f>
         <v>1.5843529757953621</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.5186645556696301</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.6061218714432699</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1.5337829262701399</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1.4003998832375799</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1.5807857051997101</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1.45628131253389</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1.73450742780036</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>1.6590586236201701</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>1.5541744472575301</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>2.7959934199751402</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M16" si="0">AVERAGE(B3:K3)</f>
         <v>1.6839770173007422</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.0798511533114299</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.1515065609678501</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1.0781949465254099</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.96323443662286101</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>1.09236083679493</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1.13357414935662</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>1.1081743246318501</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>1.1408139481717601</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1.0056923924883401</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>3.0820402587777598</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
         <v>1.283544300764881</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.10373304709439</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1.1838709869897099</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1.1580252703212199</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.98575066365115205</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.16374861417102</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>1.14006304771443</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1.1460559678151301</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1.2050819383062199</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.89598585731007696</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>3.0770377083760398</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>1.3059353101749387</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.81634961219714597</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.86637541261529905</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.84066034726238104</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.65765883897464705</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.90848804148359197</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.92745070650948702</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>0.85452310696869804</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>0.92434993670779897</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.76264790176617703</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>3.3411660464668098</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
         <v>1.0899669950952036</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.22973654770525</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.3131832469190099</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1.24930832336492</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1.1128234645583499</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1.27128409469962</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1.22832047264126</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>1.33236377275107</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1.34762656912606</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>1.1496984492674001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>2.99615903031376</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>1.42305039713467</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.42115706512273998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.459778601030498</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.43724670724835202</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.30564007185390002</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.46444650168016899</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.58201979217511501</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.41232770732024798</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.56970612557496103</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>0.35693330819645003</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>3.7020339604614301</v>
       </c>
       <c r="M8">
@@ -1374,316 +1368,340 @@
         <v>0.7711289840663863</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.240272870481017</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.26107515015305599</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.25214668312137301</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.2055282410583</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.21477878811678799</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.36040680542618803</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0.208717583346583</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.37676010424002998</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.210893235236183</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>4.0300056043768402</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>0.63605850655563589</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.38827390672180401</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.448437159136023</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.42712320908337698</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.22524192031899301</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>0.44254889468978897</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.55598400505235401</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0.37460893991958499</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>0.53942122947568605</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>0.32650716818948</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>3.75579436275425</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
         <v>0.74839407953413417</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.366325211319527</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.49615849245453197</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.244232880762008</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.26390669062148497</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.107277755835087</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>9.3005298611199494E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.35096163887961002</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>0.26152397795426402</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>0.86275585808863697</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>4.0148235824962599</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
         <v>0.70609713870226098</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.615686424288032</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.66022447306784304</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.63187416877657199</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.49712555913692202</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.62665558953915301</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.79464725084235999</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>0.618035763916717</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>0.792273930919286</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>0.56398965353208597</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>3.5011295370979201</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
         <v>0.93016423511168911</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1.0850582413457199</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1.2742035077276499</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1.16068623536622</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.90140916922903702</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>1.3051984980956299</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>1.82175588349724</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>1.55730059482589</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>1.7293443247535201</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>0.71073582321011597</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>3.6311198170187602</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
         <v>1.5176812095069783</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1.09766693390556</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1.2872030189377801</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1.1781422471149401</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.908126749073912</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>1.34271071139461</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>1.8262223402419699</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>1.5448054042302599</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>1.73197048227436</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>0.74036457072211903</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>3.6273355790908499</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
         <v>1.5284548036986363</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2.3821067103926801</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2.4136004796369401</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>2.4828993712347698</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>2.0443523311749598</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>2.5278271106308301</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>2.2601068937211299</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>2.1683699156285901</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>2.6139472125772301</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>2.21160840769477</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>3.55701849199149</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
         <v>2.4661836924683387</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2.3241672184373998</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>2.3632298047883098</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>2.4337938637719501</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1.9924272132191501</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2.4806237037313399</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>2.1776337369963299</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>2.1076617657907</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>2.5649603356805502</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>2.1808128156397002</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>3.50416620299732</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
         <v>2.4129476661052749</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1772,19 +1790,259 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:K18">
-    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:K19">
-    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M16">
-    <cfRule type="top10" dxfId="7" priority="5" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E7BB9-E176-0D4B-B3B9-2C2E9285DC5C}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0.63605850655563589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0.2055282410583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0.74839407953413417</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>0.22524192031899301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0.70609713870226098</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0.26390669062148497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.7711289840663863</v>
+      </c>
+      <c r="D5">
+        <v>0.30564007185390002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.93016423511168911</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0.49712555913692202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.0899669950952036</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.65765883897464705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1.5176812095069783</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0.90140916922903702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1.5284548036986363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0.908126749073912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1.283544300764881</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0.96323443662286101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1.3059353101749387</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0.98575066365115205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1.42305039713467</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1.1128234645583499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1.5843529757953621</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1.27902267142377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1.6839770173007422</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1.4003998832375799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>2.4129476661052749</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>1.9924272132191501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2.4661836924683387</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>2.0443523311749598</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition ref="D2:D16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>